--- a/Data/Transitions/19591960Translation.xlsx
+++ b/Data/Transitions/19591960Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="559">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1676,9 +1676,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{609.0: 0.9998658078368223, 610.0: 0.00013419216317767042}</t>
@@ -3704,7 +3701,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>554</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4441,7 +4438,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>554</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5915,7 +5912,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5926,7 +5923,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6652,7 +6649,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7895,7 +7892,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -7972,7 +7969,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="539" spans="1:3">
